--- a/Project/BOM/Bill of Materials-Autobot_project-V1.xlsx
+++ b/Project/BOM/Bill of Materials-Autobot_project-V1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Comment</t>
   </si>
@@ -152,9 +152,6 @@
     <t>UART</t>
   </si>
   <si>
-    <t>TPS562200DDCT</t>
-  </si>
-  <si>
     <t>R13-509B-05-BR</t>
   </si>
   <si>
@@ -167,28 +164,46 @@
     <t>MULTICOMP</t>
   </si>
   <si>
-    <t>2420234</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS</t>
-  </si>
-  <si>
-    <t>Buck converter</t>
-  </si>
-  <si>
-    <t>Inductance de puissance</t>
-  </si>
-  <si>
-    <t>WURTH ELEKTRONIK</t>
-  </si>
-  <si>
-    <t>744043003</t>
-  </si>
-  <si>
-    <t>1890604</t>
-  </si>
-  <si>
-    <t>L1</t>
+    <t>Adaptateur CI</t>
+  </si>
+  <si>
+    <t>33010</t>
+  </si>
+  <si>
+    <t>CAPITAL ADVANCED</t>
+  </si>
+  <si>
+    <t>1384010</t>
+  </si>
+  <si>
+    <t>Supports CI</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>1-1814655-1</t>
+  </si>
+  <si>
+    <t>1218869</t>
+  </si>
+  <si>
+    <t>Wires F/M</t>
+  </si>
+  <si>
+    <t>PSG-JMP150MF</t>
+  </si>
+  <si>
+    <t>2452749</t>
+  </si>
+  <si>
+    <t>MCBBJ65</t>
+  </si>
+  <si>
+    <t>2396146</t>
+  </si>
+  <si>
+    <t>Wires M/M</t>
   </si>
 </sst>
 </file>
@@ -538,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,19 +766,19 @@
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -803,7 +818,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -813,7 +828,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -825,14 +840,12 @@
         <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -846,7 +859,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -863,9 +876,57 @@
       <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
